--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a15f02d086f08b67/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCFECF-4036-41AD-BF1F-C4B93198FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D5DCFECF-4036-41AD-BF1F-C4B93198FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A5BFF1-4032-4D40-845A-A9FE5DF5C612}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -276,9 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,8 +728,8 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>3</v>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>7</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>7</v>
